--- a/ExcelToolsTests/TestFiles/ColumnSplitter/new_column_split_input.xlsx
+++ b/ExcelToolsTests/TestFiles/ColumnSplitter/new_column_split_input.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelToolsGit\ExcelToolsApp\bin\Debug\net7.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelToolsGit\ExcelToolsTests\TestFiles\ColumnSplitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACDD07-9DEE-44F4-986B-2215ECEDF475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613EE0B-9126-4BFE-B818-04400B4C65D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3168" yWindow="2424" windowWidth="17280" windowHeight="8880" tabRatio="205" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="205" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,12 @@
     <x:t>Id</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dulce Abril</x:t>
   </x:si>
   <x:si>
-    <x:t>Dulce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abril</x:t>
-  </x:si>
-  <x:si>
     <x:t>Female</x:t>
   </x:si>
   <x:si>
@@ -59,21 +56,21 @@
     <x:t>15/10/2017</x:t>
   </x:si>
   <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mara Hashimoto</x:t>
   </x:si>
   <x:si>
-    <x:t>Mara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hashimoto</x:t>
-  </x:si>
-  <x:si>
     <x:t>Great Britain</x:t>
   </x:si>
   <x:si>
     <x:t>16/08/2016</x:t>
   </x:si>
   <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
@@ -83,61 +80,40 @@
     <x:t>21/05/2015</x:t>
   </x:si>
   <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Kathleen Hanner</x:t>
   </x:si>
   <x:si>
-    <x:t>Kathleen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hanner</x:t>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>Nereida Magwood Jr</x:t>
   </x:si>
   <x:si>
-    <x:t>Nereida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jr</x:t>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Gaston Brumm</x:t>
   </x:si>
   <x:si>
-    <x:t>Gaston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brumm</x:t>
+    <x:t>8</x:t>
   </x:si>
   <x:si>
     <x:t>Earlean Melgar</x:t>
   </x:si>
   <x:si>
-    <x:t>Earlean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melgar</x:t>
+    <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>Vincenza Weiland</x:t>
   </x:si>
   <x:si>
-    <x:t>Vincenza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weiland</x:t>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Fallon Winward</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fallon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winward</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -533,310 +509,283 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="C1:K96"/>
+  <x:dimension ref="A1:K96"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D6" sqref="D6"/>
+      <x:selection activeCell="D19" sqref="D19 E19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="3" width="11.554688" style="0" customWidth="1"/>
-    <x:col min="4" max="7" width="19.554688" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="11.554688" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.441406" style="0" customWidth="1"/>
-    <x:col min="10" max="1027" width="11.554688" style="0" customWidth="1"/>
+    <x:col min="1" max="4" width="11.554688" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.554688" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.554688" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.441406" style="0" customWidth="1"/>
+    <x:col min="8" max="1025" width="11.554688" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:1027" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <x:row r="3" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C3" s="1">
+    <x:row r="1" spans="1:1025" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <x:row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B3" s="1"/>
+      <x:c r="C3" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="1"/>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="1"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="H3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K3" s="1"/>
+      <x:c r="L3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I3" s="1" t="s">
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:v>1562</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M3" s="1"/>
-      <x:c r="N3" s="1"/>
-    </x:row>
-    <x:row r="4" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C4" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J4" s="0">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L4" s="0">
-        <x:v>1562</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C5" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="F5" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="H5" s="0">
+        <x:v>1582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H6" s="0">
+        <x:v>2587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J5" s="0">
+      <x:c r="F7" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="s">
+      <x:c r="G7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H7" s="0">
+        <x:v>3549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="0">
+        <x:v>2468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L5" s="0">
-        <x:v>1582</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C6" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J6" s="0">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L6" s="0">
-        <x:v>2587</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C7" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
+      <x:c r="H9" s="0">
+        <x:v>2554</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="F10" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H10" s="0">
+        <x:v>2456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H11" s="0">
+        <x:v>6548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="J7" s="0">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K7" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L7" s="0">
-        <x:v>3549</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C8" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J8" s="0">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="L8" s="0">
-        <x:v>2468</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C9" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J9" s="0">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L9" s="0">
-        <x:v>2554</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C10" s="0">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J10" s="0">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="L10" s="0">
-        <x:v>2456</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C11" s="0">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J11" s="0">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L11" s="0">
-        <x:v>6548</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C12" s="0">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J12" s="0">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="L12" s="0">
+      <x:c r="G12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H12" s="0">
         <x:v>5486</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K14" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="C17" s="3"/>
+    <x:row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I14" s="2"/>
+    </x:row>
+    <x:row r="17" spans="1:1025" x14ac:dyDescent="0.25">
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="3"/>
@@ -844,115 +793,113 @@
       <x:c r="H17" s="3"/>
       <x:c r="I17" s="3"/>
       <x:c r="J17" s="3"/>
-      <x:c r="K17" s="3"/>
-      <x:c r="L17" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K19" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K23" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K27" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K30" s="2"/>
-      <x:c r="L30" s="4"/>
-    </x:row>
-    <x:row r="31" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L31" s="4"/>
-    </x:row>
-    <x:row r="32" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L32" s="4"/>
-    </x:row>
-    <x:row r="33" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K33" s="2"/>
-      <x:c r="L33" s="4"/>
-    </x:row>
-    <x:row r="34" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L34" s="4"/>
-    </x:row>
-    <x:row r="35" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L35" s="4"/>
-    </x:row>
-    <x:row r="36" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L36" s="4"/>
-    </x:row>
-    <x:row r="37" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L37" s="4"/>
-    </x:row>
-    <x:row r="38" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K38" s="2"/>
-      <x:c r="L38" s="4"/>
-    </x:row>
-    <x:row r="39" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L39" s="4"/>
-    </x:row>
-    <x:row r="40" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L40" s="4"/>
-    </x:row>
-    <x:row r="41" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L41" s="4"/>
-    </x:row>
-    <x:row r="42" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K42" s="2"/>
-      <x:c r="L42" s="4"/>
-    </x:row>
-    <x:row r="43" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L43" s="4"/>
-    </x:row>
-    <x:row r="44" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L44" s="4"/>
-    </x:row>
-    <x:row r="45" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K45" s="2"/>
-      <x:c r="L45" s="4"/>
-    </x:row>
-    <x:row r="46" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="L46" s="4"/>
-    </x:row>
-    <x:row r="48" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K48" s="2"/>
-    </x:row>
-    <x:row r="51" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K51" s="2"/>
-    </x:row>
-    <x:row r="53" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K53" s="2"/>
-    </x:row>
-    <x:row r="56" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K56" s="2"/>
-    </x:row>
-    <x:row r="59" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K59" s="2"/>
-    </x:row>
-    <x:row r="64" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K64" s="2"/>
-    </x:row>
-    <x:row r="69" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K69" s="2"/>
-    </x:row>
-    <x:row r="73" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K73" s="2"/>
-    </x:row>
-    <x:row r="77" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K77" s="2"/>
-    </x:row>
-    <x:row r="80" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K80" s="2"/>
-    </x:row>
-    <x:row r="83" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K83" s="2"/>
-    </x:row>
-    <x:row r="88" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K88" s="2"/>
-    </x:row>
-    <x:row r="93" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K93" s="2"/>
-    </x:row>
-    <x:row r="96" spans="1:1027" x14ac:dyDescent="0.25">
-      <x:c r="K96" s="2"/>
+    </x:row>
+    <x:row r="19" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I19" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I23" s="2"/>
+    </x:row>
+    <x:row r="27" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I27" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I30" s="2"/>
+      <x:c r="J30" s="4"/>
+    </x:row>
+    <x:row r="31" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J31" s="4"/>
+    </x:row>
+    <x:row r="32" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J32" s="4"/>
+    </x:row>
+    <x:row r="33" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I33" s="2"/>
+      <x:c r="J33" s="4"/>
+    </x:row>
+    <x:row r="34" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J34" s="4"/>
+    </x:row>
+    <x:row r="35" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J35" s="4"/>
+    </x:row>
+    <x:row r="36" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J36" s="4"/>
+    </x:row>
+    <x:row r="37" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J37" s="4"/>
+    </x:row>
+    <x:row r="38" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I38" s="2"/>
+      <x:c r="J38" s="4"/>
+    </x:row>
+    <x:row r="39" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J39" s="4"/>
+    </x:row>
+    <x:row r="40" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J40" s="4"/>
+    </x:row>
+    <x:row r="41" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J41" s="4"/>
+    </x:row>
+    <x:row r="42" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I42" s="2"/>
+      <x:c r="J42" s="4"/>
+    </x:row>
+    <x:row r="43" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J43" s="4"/>
+    </x:row>
+    <x:row r="44" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J44" s="4"/>
+    </x:row>
+    <x:row r="45" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I45" s="2"/>
+      <x:c r="J45" s="4"/>
+    </x:row>
+    <x:row r="46" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="J46" s="4"/>
+    </x:row>
+    <x:row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I48" s="2"/>
+    </x:row>
+    <x:row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I51" s="2"/>
+    </x:row>
+    <x:row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I53" s="2"/>
+    </x:row>
+    <x:row r="56" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I56" s="2"/>
+    </x:row>
+    <x:row r="59" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I59" s="2"/>
+    </x:row>
+    <x:row r="64" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I64" s="2"/>
+    </x:row>
+    <x:row r="69" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I69" s="2"/>
+    </x:row>
+    <x:row r="73" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I73" s="2"/>
+    </x:row>
+    <x:row r="77" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I77" s="2"/>
+    </x:row>
+    <x:row r="80" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I80" s="2"/>
+    </x:row>
+    <x:row r="83" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I83" s="2"/>
+    </x:row>
+    <x:row r="88" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I88" s="2"/>
+    </x:row>
+    <x:row r="93" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I93" s="2"/>
+    </x:row>
+    <x:row r="96" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="I96" s="2"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
